--- a/CLOUD解决方案/分布式缓存.xlsx
+++ b/CLOUD解决方案/分布式缓存.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="分布式缓存" sheetId="1" r:id="rId1"/>
+    <sheet name="Redis实例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>高并发环境下，大量的读写请求涌向数据库，磁盘的处理速度与内存显然不在一个量级，从减轻数据库的压力和提高系统响应速度两个角度来考虑，</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,13 +120,933 @@
   <si>
     <t>华为分布式缓存服务（DCS）在互联网类应用的场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash（哈希）</t>
+  </si>
+  <si>
+    <t>　　Redis hash 是一个键值对集合。</t>
+  </si>
+  <si>
+    <t>　　Redis hash是一个string类型的field和value的映射表，hash特别适合用于存储对象。</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; HMSET user:1 username redis.net.cn password redis.net.cn points 200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> OK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; HGETALL user:1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis.net.cn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis.net.cn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"points"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"200"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　以上实例中 hash 数据类型存储了包含用户脚本信息的用户对象。 实例中我们使用了 Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HMSET, HEGTALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 命令，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 为键值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　每个 hash 可以存储 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32 - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 键值对（40多亿）。</t>
+    </r>
+  </si>
+  <si>
+    <t>Redis 操作</t>
+  </si>
+  <si>
+    <t>　　Redis支持五种数据类型：string（字符串），hash（哈希），list（列表），set（集合）及zset(sorted set：有序集合)。</t>
+  </si>
+  <si>
+    <t>String（字符串）</t>
+  </si>
+  <si>
+    <t>　　string是redis最基本的类型，你可以理解成与Memcached一模一样的类型，一个key对应一个value。</t>
+  </si>
+  <si>
+    <t>　　string类型是二进制安全的。意思是redis的string可以包含任何数据。比如jpg图片或者序列化的对象 。</t>
+  </si>
+  <si>
+    <t>　　string类型是Redis最基本的数据类型，一个键最大能存储512MB。</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> OK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; GET name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis.net.cn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　在以上实例中我们使用了 Redis 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 命令。键为 name，对应的值为redis.net.cn。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个键最大能存储512MB。</t>
+    </r>
+  </si>
+  <si>
+    <t>List（列表）</t>
+  </si>
+  <si>
+    <t>　　Redis 列表是简单的字符串列表，按照插入顺序排序。你可以添加一个元素导列表的头部（左边）或者尾部（右边）。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; lpush redis.net.cn redis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; lpush redis.net.cn mongodb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; lpush redis.net.cn rabitmq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; lrange redis.net.cn 010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rabitmq"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mongodb"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　列表最多可存储 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32 - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 元素 (4294967295, 每个列表可存储40多亿)。</t>
+    </r>
+  </si>
+  <si>
+    <t>Set（集合）</t>
+  </si>
+  <si>
+    <t>　　Redis的Set是string类型的无序集合。</t>
+  </si>
+  <si>
+    <t>　　集合是通过哈希表实现的，所以添加，删除，查找的复杂度都是O(1)。</t>
+  </si>
+  <si>
+    <t>　　sadd 命令</t>
+  </si>
+  <si>
+    <t>　　添加一个string元素到,key对应的set集合中，成功返回1,如果元素以及在集合中返回0,key对应的set不存在返回错误。</t>
+  </si>
+  <si>
+    <t>sadd key member</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; sadd redis.net.cn redis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; sadd redis.net.cn mongodb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; sadd redis.net.cn rabitmq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; sadd redis.net.cn rabitmq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (integer)0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; smembers redis.net.cn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rabitmq"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mongodb"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上实例中 rabitmq 添加了两次，但根据集合内元素的唯一性，第二次插入的元素将被忽略。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　　集合中最大的成员数为 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32 - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> (4294967295, 每个集合可存储40多亿个成员)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis 127.0.0.1:6379&gt; SET name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"redis.net.cn"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、redis简介</t>
+  </si>
+  <si>
+    <t>　　redis是业界主流的key-value nosql 数据库之一。和Memcached类似，它支持存储的value类型相对更多，包括string(字符串)、list(链表)、set(集合)、zset(sorted set --有序集合)和hash（哈希类型）。这些数据类型都支持push/pop、add/remove及取交集并集和差集及更丰富的操作，而且这些操作都是原子性的。在此基础上，redis支持各种不同方式的排序。与memcached一样，为了保证效率，数据都是缓存在内存中。区别的是redis会周期性的把更新的数据写入磁盘或者把修改操作写入追加的记录文件，并且在此基础上实现了master-slave(主从)同步。</t>
+  </si>
+  <si>
+    <t>Redis从它的许多竞争继承来的三个主要特点：</t>
+  </si>
+  <si>
+    <t>Redis数据库完全在内存中，使用磁盘仅用于持久性。</t>
+  </si>
+  <si>
+    <t>相比许多键值数据存储，Redis拥有一套较为丰富的数据类型。</t>
+  </si>
+  <si>
+    <t>Redis可以将数据复制到任意数量的从服务器。</t>
+  </si>
+  <si>
+    <t>Redis 优势:</t>
+  </si>
+  <si>
+    <t>异常快速：Redis的速度非常快，每秒能执行约11万集合，每秒约81000+条记录。</t>
+  </si>
+  <si>
+    <t>支持丰富的数据类型：Redis支持最大多数开发人员已经知道像列表，集合，有序集合，散列数据类型。这使得它非常容易解决各种各样的问题，因为我们知道哪些问题是可以处理通过它的数据类型更好。</t>
+  </si>
+  <si>
+    <t>操作都是原子性：所有Redis操作是原子的，这保证了如果两个客户端同时访问的Redis服务器将获得更新后的值。</t>
+  </si>
+  <si>
+    <t>多功能实用工具：Redis是一个多实用的工具，可以在多个用例如缓存，消息，队列使用(Redis原生支持发布/订阅)，任何短暂的数据，应用程序，如Web应用程序会话，网页命中计数等。</t>
+  </si>
+  <si>
+    <t> MultiUtility工具：Redis是一个多功能实用工具，可以在很多如：缓存，消息传递队列中使用（Redis原生支持发布/订阅），在应用程序中，如：Web应用程序会话，网站页面点击数等任何短暂的数据；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +1078,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF075DB3"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF800000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,12 +1186,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="AB68" sqref="AB68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,4 +1830,451 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9280858-6552-4407-BE04-8E9B591E0392}">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>